--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Downloads\"/>
     </mc:Choice>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FamilyName</t>
   </si>
@@ -66,12 +66,25 @@
   </si>
   <si>
     <t>TestAutomation</t>
+  </si>
+  <si>
+    <t>Y8KAN8TX1L</t>
+  </si>
+  <si>
+    <t>RD390ZQLGR</t>
+  </si>
+  <si>
+    <t>E1TKFY94LT</t>
+  </si>
+  <si>
+    <t>SCX0J2SEND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,12 +478,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -497,8 +510,8 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>18081995</v>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FamilyName</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>SCX0J2SEND</t>
+  </si>
+  <si>
+    <t>EPVLF3L5O8</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FamilyName</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>EPVLF3L5O8</t>
+  </si>
+  <si>
+    <t>HL6V31U1HJ</t>
+  </si>
+  <si>
+    <t>J2ND9ZELD4</t>
+  </si>
+  <si>
+    <t>1654647753</t>
+  </si>
+  <si>
+    <t>4437315888</t>
   </si>
 </sst>
 </file>
@@ -514,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FamilyName</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>4437315888</t>
+  </si>
+  <si>
+    <t>7679138329</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>FamilyName</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>7679138329</t>
+  </si>
+  <si>
+    <t>8126340682</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>FamilyName</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>8126340682</t>
+  </si>
+  <si>
+    <t>6588374619</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>FamilyName</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>6588374619</t>
+  </si>
+  <si>
+    <t>9218359091</t>
+  </si>
+  <si>
+    <t>2061161041</t>
+  </si>
+  <si>
+    <t>6886979177</t>
   </si>
 </sst>
 </file>
@@ -535,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>FamilyName</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>6886979177</t>
+  </si>
+  <si>
+    <t>0681824147</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF3E159-FED4-4E72-AB77-54D1B775995E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF860B01-B4DA-4683-BBD8-C5A3326D80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FamilyName</t>
   </si>
@@ -68,52 +68,16 @@
     <t>TestAutomation</t>
   </si>
   <si>
-    <t>Y8KAN8TX1L</t>
-  </si>
-  <si>
-    <t>RD390ZQLGR</t>
-  </si>
-  <si>
-    <t>E1TKFY94LT</t>
-  </si>
-  <si>
-    <t>SCX0J2SEND</t>
-  </si>
-  <si>
-    <t>EPVLF3L5O8</t>
-  </si>
-  <si>
-    <t>HL6V31U1HJ</t>
-  </si>
-  <si>
-    <t>J2ND9ZELD4</t>
-  </si>
-  <si>
-    <t>1654647753</t>
-  </si>
-  <si>
-    <t>4437315888</t>
-  </si>
-  <si>
-    <t>7679138329</t>
-  </si>
-  <si>
-    <t>8126340682</t>
-  </si>
-  <si>
-    <t>6588374619</t>
-  </si>
-  <si>
-    <t>9218359091</t>
-  </si>
-  <si>
-    <t>2061161041</t>
-  </si>
-  <si>
-    <t>6886979177</t>
-  </si>
-  <si>
-    <t>0681824147</t>
+    <t>2552971183</t>
+  </si>
+  <si>
+    <t>4750347013</t>
+  </si>
+  <si>
+    <t>0642137342</t>
+  </si>
+  <si>
+    <t>6580218086</t>
   </si>
 </sst>
 </file>
@@ -509,7 +473,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +486,7 @@
     <col min="6" max="6" customWidth="true" width="19.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -565,5 +529,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;KA80000 PUBLIC</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/test/resources/testData/Account.xlsx
+++ b/src/test/resources/testData/Account.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FamilyName</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>6580218086</t>
+  </si>
+  <si>
+    <t>2328272993</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
